--- a/StructureDefinition-ext-R5-GraphDefinition.node.xlsx
+++ b/StructureDefinition-ext-R5-GraphDefinition.node.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `GraphDefinition.node` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `GraphDefinition.node` is mapped to FHIR R4 structure `GraphDefinition`, but has no target element specified.</t>
+Element `GraphDefinition.node` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:GraphDefinition</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `GraphDefinition.node.nodeId` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
-Element `GraphDefinition.node.nodeId` is mapped to FHIR R4 structure `GraphDefinition`, but has no target element specified.</t>
+Element `GraphDefinition.node.nodeId` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:nodeId.id</t>
@@ -425,7 +425,7 @@
   </si>
   <si>
     <t>Element `GraphDefinition.node.description` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
-Element `GraphDefinition.node.description` is mapped to FHIR R4 structure `GraphDefinition`, but has no target element specified.</t>
+Element `GraphDefinition.node.description` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -453,7 +453,7 @@
   </si>
   <si>
     <t>Element `GraphDefinition.node.type` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
-Element `GraphDefinition.node.type` is mapped to FHIR R4 structure `GraphDefinition`, but has no target element specified.</t>
+Element `GraphDefinition.node.type` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -485,7 +485,8 @@
   </si>
   <si>
     <t>Element `GraphDefinition.node.profile` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
-Element `GraphDefinition.node.profile` is mapped to FHIR R4 structure `GraphDefinition`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.node.profile` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `GraphDefinition.node.profile` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:profile.id</t>
@@ -851,7 +852,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="128.16015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="194.625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-GraphDefinition.node.xlsx
+++ b/StructureDefinition-ext-R5-GraphDefinition.node.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `GraphDefinition.node` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `GraphDefinition.node` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+Element `GraphDefinition.node` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `GraphDefinition.node.nodeId` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
-Element `GraphDefinition.node.nodeId` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+Element `GraphDefinition.node.nodeId` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:nodeId.id</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node.nodeId</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -425,7 +428,7 @@
   </si>
   <si>
     <t>Element `GraphDefinition.node.description` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
-Element `GraphDefinition.node.description` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+Element `GraphDefinition.node.description` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -437,6 +440,9 @@
     <t>Extension.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node.description</t>
+  </si>
+  <si>
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
@@ -453,7 +459,7 @@
   </si>
   <si>
     <t>Element `GraphDefinition.node.type` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
-Element `GraphDefinition.node.type` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+Element `GraphDefinition.node.type` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -463,6 +469,9 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -486,7 +495,7 @@
   <si>
     <t>Element `GraphDefinition.node.profile` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.node.profile` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `GraphDefinition.node.profile` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+Element `GraphDefinition.node.profile` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:profile.id</t>
@@ -496,6 +505,9 @@
   </si>
   <si>
     <t>Extension.extension:profile.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node.profile</t>
   </si>
   <si>
     <t>Extension.extension:profile.value[x]</t>
@@ -1658,7 +1670,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1700,7 +1712,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1715,15 +1727,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1746,7 +1758,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1803,7 +1815,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1815,21 +1827,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1854,14 +1866,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1930,7 +1942,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2033,7 +2045,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2138,7 +2150,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2181,7 +2193,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2223,7 +2235,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2238,15 +2250,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2272,10 +2284,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2326,7 +2338,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2338,21 +2350,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2377,14 +2389,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2453,7 +2465,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2556,7 +2568,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2661,7 +2673,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2704,7 +2716,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2746,7 +2758,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2761,15 +2773,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2792,13 +2804,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2849,7 +2861,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2861,21 +2873,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2900,14 +2912,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2976,7 +2988,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3079,7 +3091,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3184,7 +3196,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3227,7 +3239,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3269,7 +3281,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3284,15 +3296,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3315,13 +3327,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3372,7 +3384,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3384,18 +3396,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3477,7 +3489,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
@@ -3492,15 +3504,15 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3523,13 +3535,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3580,7 +3592,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3592,10 +3604,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-GraphDefinition.node.xlsx
+++ b/StructureDefinition-ext-R5-GraphDefinition.node.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -513,7 +513,7 @@
     <t>Extension.extension:profile.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|0.0.1-snapshot-3|StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|StructureDefinition)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-GraphDefinition.node.xlsx
+++ b/StructureDefinition-ext-R5-GraphDefinition.node.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>Internal ID of node - target for link references.</t>
   </si>
   <si>
-    <t>Element `GraphDefinition.node.nodeId` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
-Element `GraphDefinition.node.nodeId` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+    <t>Element `GraphDefinition.node.nodeId` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:nodeId.id</t>
@@ -389,9 +388,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node.nodeId</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -427,8 +423,7 @@
     <t>Information about why this node is of interest in this graph definition.</t>
   </si>
   <si>
-    <t>Element `GraphDefinition.node.description` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
-Element `GraphDefinition.node.description` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+    <t>Element `GraphDefinition.node.description` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -440,9 +435,6 @@
     <t>Extension.extension:description.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node.description</t>
-  </si>
-  <si>
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
@@ -458,8 +450,7 @@
     <t>Type of resource this link refers to.</t>
   </si>
   <si>
-    <t>Element `GraphDefinition.node.type` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
-Element `GraphDefinition.node.type` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+    <t>Element `GraphDefinition.node.type` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -469,9 +460,6 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -481,6 +469,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A type of resource, or a Reference (from all versions)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-version-independent-all-resource-types-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:profile</t>
   </si>
   <si>
@@ -493,8 +490,7 @@
     <t>Profile for the target resource.</t>
   </si>
   <si>
-    <t>Element `GraphDefinition.node.profile` is part of an existing definition because parent element `GraphDefinition.node` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.node.profile` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.node.profile` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
 Element `GraphDefinition.node.profile` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
@@ -507,13 +503,10 @@
     <t>Extension.extension:profile.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node.profile</t>
-  </si>
-  <si>
     <t>Extension.extension:profile.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|StructureDefinition)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|0.0.1-snapshot-3|StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -874,8 +867,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="85.51171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1670,72 +1663,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1758,7 +1751,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1815,7 +1808,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1827,21 +1820,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1866,14 +1859,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1942,7 +1935,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2045,7 +2038,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2150,7 +2143,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2193,7 +2186,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2235,30 +2228,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2284,10 +2277,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2338,7 +2331,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2350,21 +2343,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2389,14 +2382,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2465,7 +2458,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2568,7 +2561,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2673,7 +2666,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2716,7 +2709,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2758,30 +2751,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2804,13 +2797,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2837,13 +2830,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2861,7 +2854,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2873,10 +2866,10 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -3239,7 +3232,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3281,30 +3274,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3327,7 +3320,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>150</v>
@@ -3384,7 +3377,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3396,18 +3389,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3489,30 +3482,30 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3535,13 +3528,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3592,7 +3585,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3604,10 +3597,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
